--- a/Biomarker_Assays_and_Clinical_Data_20221122.xlsx
+++ b/Biomarker_Assays_and_Clinical_Data_20221122.xlsx
@@ -375,22 +375,22 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Urine_sFas_V1 (pg/mL)</t>
+          <t>urine_sfas_V1 (pg/mL)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Urine_Ang-2_V1 (pg/mL)</t>
+          <t>urine_ang-2_V1 (pg/mL)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Urine_IL-18_V1 (pg/mL)</t>
+          <t>urine_il18_V1 (pg/mL)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Urine_NGAL_V1 (pg/mL)</t>
+          <t>urine_ngal_V1 (pg/mL)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
